--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solomonj\IdeaProjects\SeleniumFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solom\IdeaProjects\SeleniumFramework_Java\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A84669-063F-4FD4-870B-88157787F041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A96779-D46B-4A79-BB51-148BE53C2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>TestID</t>
   </si>
@@ -46,15 +45,6 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>admin_userRole</t>
-  </si>
-  <si>
-    <t>admin_userRole_message</t>
-  </si>
-  <si>
-    <t>(15) Records Found</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
@@ -82,9 +72,6 @@
     <t>employee_select</t>
   </si>
   <si>
-    <t>Admin Admin123</t>
-  </si>
-  <si>
     <t>(1) Record Found</t>
   </si>
   <si>
@@ -122,13 +109,151 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Peter Mac Anderson</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>Russel Hamilton</t>
+  </si>
+  <si>
+    <t>Chief Financial Officer</t>
+  </si>
+  <si>
+    <t>New York Sales Office</t>
+  </si>
+  <si>
+    <t>(2) Records Found</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Timothy Lewis Amiano</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>HQ - CA, USA</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>12, street</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>13, street</t>
+  </si>
+  <si>
+    <t>Testing4</t>
+  </si>
+  <si>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>Testing6</t>
+  </si>
+  <si>
+    <t>Testing7</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Testing8</t>
+  </si>
+  <si>
+    <t>Testing10</t>
+  </si>
+  <si>
+    <t>Testing12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +265,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,10 +311,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,27 +610,25 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -506,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -521,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>21</v>
@@ -529,19 +660,31 @@
       <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -553,29 +696,41 @@
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>600001</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -586,47 +741,47 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>600002</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -634,10 +789,401 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>600003</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>600004</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>600005</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>600006</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>600007</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>